--- a/Lectures and Assignment 3/problem3.xlsx
+++ b/Lectures and Assignment 3/problem3.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E34DDC-EF3E-4A70-AE33-8980CDB9CF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B92B66-4EDB-4502-B6F7-3322422136AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 3" sheetId="13" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 3'!$N$35:$N$36</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 3'!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 3'!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 3'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 3'!$N$35</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 3'!$N$35</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 3'!$N$36</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 3'!$N$36</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Problem 3'!$P$46</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -34,16 +34,21 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 3'!$W$40</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 3'!$N$44</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 3'!$N$41</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 3'!$N$45</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Problem 3'!$N$42</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Problem 3'!$S$46</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -51,7 +56,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -73,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Table 1</t>
   </si>
@@ -141,12 +146,95 @@
   <si>
     <t>Oil rigs</t>
   </si>
+  <si>
+    <t>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>Decision variable</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Annual costs of oil rig</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Total annual flight costs</t>
+  </si>
+  <si>
+    <t>x distance to oil rig</t>
+  </si>
+  <si>
+    <t>y distance  to oil rig</t>
+  </si>
+  <si>
+    <t>Euclidean distance to oil rig</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Constraint # Distance to land base</t>
+  </si>
+  <si>
+    <t>x distance to land base</t>
+  </si>
+  <si>
+    <t>y distance to land base</t>
+  </si>
+  <si>
+    <t>Euclidean distance to land base</t>
+  </si>
+  <si>
+    <t>Minimum distance to a land base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRG Nonlinear </t>
+  </si>
+  <si>
+    <t>GRG Nonlinear</t>
+  </si>
+  <si>
+    <t>Evolutionary</t>
+  </si>
+  <si>
+    <t>Upperbound</t>
+  </si>
+  <si>
+    <t>Lowerbound</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,14 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <vertAlign val="subscript"/>
       <sz val="8"/>
@@ -195,15 +275,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +296,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -275,15 +379,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -297,17 +392,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -351,21 +435,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,42 +539,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43FD3433-C7A3-40E5-B577-758F6754C411}" type="CELLRANGE">
+                    <a:fld id="{B8BDDB6B-EFBA-4449-8636-6FCBC75AE9E6}" type="CELLRANGE">
                       <a:rPr lang="en-FI"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -519,13 +764,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="5.2402943147345525E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63DDE2DA-C2A7-4AB1-98D3-D697A6F871E4}" type="CELLRANGE">
-                      <a:rPr lang="en-FI"/>
+                    <a:fld id="{537D38BA-C8E0-414B-BD21-4D21F6A659D9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -542,7 +793,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -557,7 +807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{823AB86A-DBFA-4C54-AB5B-DAFF0D74D6AF}" type="CELLRANGE">
+                    <a:fld id="{C5F20400-BBED-4200-8F73-BB5CF1EDDCAD}" type="CELLRANGE">
                       <a:rPr lang="en-FI"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -590,7 +840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD2DD208-30D3-41BD-A0CE-45EC9E0DC952}" type="CELLRANGE">
+                    <a:fld id="{D8FE61B1-0B6E-4434-B100-0A46103A518C}" type="CELLRANGE">
                       <a:rPr lang="en-FI"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -623,7 +873,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B64D46E-212E-4D39-8E8B-B7B8AFA7A52F}" type="CELLRANGE">
+                    <a:fld id="{7D7F1476-80C0-41E6-8F06-CEA27E73C15F}" type="CELLRANGE">
                       <a:rPr lang="en-FI"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -656,7 +906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE77127D-1358-4346-9CBC-01647BE475EA}" type="CELLRANGE">
+                    <a:fld id="{EFADF412-804F-4B8C-AB93-7DCF754E1BC2}" type="CELLRANGE">
                       <a:rPr lang="en-FI"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -689,7 +939,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{961DE4F2-7847-41DA-86E3-FDF58662B8FE}" type="CELLRANGE">
+                    <a:fld id="{C0B98192-C1D3-40BB-A513-21E9850F57BF}" type="CELLRANGE">
                       <a:rPr lang="en-FI"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -717,13 +967,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16202785988027193"/>
+                  <c:y val="6.2883531776814494E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{086CF4D3-FBC0-4721-8516-81C13490D277}" type="CELLRANGE">
-                      <a:rPr lang="en-FI"/>
+                    <a:fld id="{4B8D24AA-0A9D-41D9-92E8-094AE00AC921}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -740,11 +996,87 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-A29A-4710-BF1E-9BFB7AF4948A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3203177871134148E-2"/>
+                  <c:y val="9.7818827208378312E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1D227E3A-E738-4562-BA54-736B9B03053A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-FI"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6257-40E3-98D0-959311E66CE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16928283868088115"/>
+                  <c:y val="-7.3364120406283734E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2BC4D791-BCEF-40CA-B7B1-361BC0775348}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-FI"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6257-40E3-98D0-959311E66CE5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -807,10 +1139,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 3'!$C$31:$J$31</c:f>
+              <c:f>'Problem 3'!$N$28:$W$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -835,15 +1167,21 @@
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>159.68826998555571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159.69200461269176</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 3'!$C$32:$J$32</c:f>
+              <c:f>'Problem 3'!$N$29:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -868,6 +1206,12 @@
                 <c:pt idx="7">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.606835793346065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.609321340075923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -875,9 +1219,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Problem 3'!$C$29:$J$29</c15:f>
+                <c15:f>'Problem 3'!$N$26:$W$26</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>Land base  1</c:v>
                   </c:pt>
@@ -901,6 +1245,12 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>Ormen Lange</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>GRG Nonlinear </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Evolutionary</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1650,7 +2000,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>127002</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5391150" cy="5278436"/>
+    <xdr:ext cx="5391150" cy="11536360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1666,8 +2016,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="220663" y="460377"/>
-              <a:ext cx="5391150" cy="5278436"/>
+              <a:off x="228601" y="455615"/>
+              <a:ext cx="5391150" cy="11536360"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1935,7 +2285,31 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1947,7 +2321,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1970,24 +2344,99 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here </a:t>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>In</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> this problem, we need to </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>determine the optimal location of the service platform, given the distances to the oil rigs, the cost of helicopter flights, and the frequency of flights to each rig. Additionally, we must ensure the service platform is within 80 km of one of the two land bases.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Parameters:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:func>
-                    <m:funcPr>
+                  <m:sSub>
+                    <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1995,41 +2444,1697 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                       </m:ctrlPr>
-                    </m:funcPr>
-                    <m:fName>
+                    </m:sSubPr>
+                    <m:e>
                       <m:r>
-                        <m:rPr>
-                          <m:sty m:val="p"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>min</m:t>
+                        <m:t>𝑥</m:t>
                       </m:r>
-                    </m:fName>
-                    <m:e>
+                    </m:e>
+                    <m:sub>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>…</m:t>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑦</m:t>
                       </m:r>
                     </m:e>
-                  </m:func>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
                 </m:oMath>
               </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>): Coordinates of the </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>-th location (oil rigs and land bases), where </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ranges from 1 to 8.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑓</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Frequency of flights to the </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>-th oil rig per year. Specifically,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> we have</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=[100, 200, 200, 200, 200, 800]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>C = 5 euros</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Cost per kilometer of helicopter flight </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Decision variables</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>x</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>y</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>): Coordinates of the service platform </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objective Function:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Minimize the total annual flight cost. The distance to each rig is calculated using the Euclidean distance formula:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>min</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>z</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>= </m:t>
+                  </m:r>
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <m:rPr>
+                          <m:brk m:alnAt="23"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=3</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>8</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>5</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑓</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:rad>
+                        <m:radPr>
+                          <m:degHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:radPr>
+                        <m:deg/>
+                        <m:e>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>−</m:t>
+                                  </m:r>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑥</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑖</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>+</m:t>
+                          </m:r>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑦</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>−</m:t>
+                                  </m:r>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑦</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑖</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:e>
+                      </m:rad>
+                    </m:e>
+                  </m:nary>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraints:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Distance to Land Bases</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: The service platform must be within 80 km of at least one of the two land bases.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>min</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                          </m:d>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑦</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑦</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                          </m:d>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>,</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                          </m:d>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑦</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑦</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                          </m:d>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≤</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>80</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2041,6 +4146,186 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Nonnegativity:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> The service platform must have a bounded coordinates because the sets of oil rigs and land bases locations form a convex set</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑥</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>,</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑦</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>0</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑥</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>,</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑦</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≤</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>350 </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2053,19 +4338,41 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Implement the NLP model using spreadsheets (1p)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>This problem is nonlinear due to the square root in the objective function and constraint, which</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> is</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> the Euclidean distance. </a:t>
+              </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2077,20 +4384,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>c) Solve the NLP model with "GRG nonlinear"-algorithm, report the optimal objective function value and draw the optimal solution to the map (0.5p)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2112,7 +4405,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here</a:t>
+                <a:t>Task (b) Implement the NLP model using spreadsheets (1p)</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2137,12 +4430,101 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>d) </a:t>
+                <a:t>The model is implemented on the right of this model</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (c) Solve the NLP model with "GRG nonlinear"-algorithm, report the optimal objective function value and draw the optimal solution to the map (0.5p)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal objective function value by GRG nonlinear is 705472.5677 euros</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal solution by GRG nonlinear is drawn on the map</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (d) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2167,19 +4549,52 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal objective function value by GRG nonlinear is 705472.5665 euros</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal solution by Evolutionary is drawn on the map</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
@@ -2458,8 +4873,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="220663" y="460377"/>
-              <a:ext cx="5391150" cy="5278436"/>
+              <a:off x="228601" y="455615"/>
+              <a:ext cx="5391150" cy="11536360"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2727,7 +5142,31 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2739,7 +5178,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2762,28 +5201,1276 @@
             </a:p>
             <a:p>
               <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>In</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> this problem, we need to </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>determine the optimal location of the service platform, given the distances to the oil rigs, the cost of helicopter flights, and the frequency of flights to each rig. Additionally, we must ensure the service platform is within 80 km of one of the two land bases.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Parameters:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>): Coordinates of the </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>-th location (oil rigs and land bases), where </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ranges from 1 to 8.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Frequency of flights to the </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>-th oil rig per year. Specifically,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> we have</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖=[100, 200,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>200,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>200,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>200,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>800]</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>C = 5 euros</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Cost per kilometer of helicopter flight </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Decision variables</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>x</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>y</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>): Coordinates of the service platform </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objective Function:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Minimize the total annual flight cost. The distance to each rig is calculated using the Euclidean distance formula:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here </a:t>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>min z= ∑_(𝑖=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>min⁡…</a:t>
-              </a:r>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>8</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> √((𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )^2+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 )^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraints:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Distance to Land Bases</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: The service platform must be within 80 km of at least one of the two land bases.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>min</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√((𝑥−𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )^2+(𝑦−𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )^2 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√((𝑥−𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )^2+(𝑦−𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )^2 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≤80</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2795,6 +6482,130 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Nonnegativity:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> The service platform must have a bounded coordinates because the sets of oil rigs and land bases locations form a convex set</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥,𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥,𝑦≤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>350</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2807,19 +6618,41 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Implement the NLP model using spreadsheets (1p)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>This problem is nonlinear due to the square root in the objective function and constraint, which</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> is</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> the Euclidean distance. </a:t>
+              </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2831,20 +6664,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>c) Solve the NLP model with "GRG nonlinear"-algorithm, report the optimal objective function value and draw the optimal solution to the map (0.5p)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2866,7 +6685,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here</a:t>
+                <a:t>Task (b) Implement the NLP model using spreadsheets (1p)</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2891,12 +6710,101 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>d) </a:t>
+                <a:t>The model is implemented on the right of this model</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (c) Solve the NLP model with "GRG nonlinear"-algorithm, report the optimal objective function value and draw the optimal solution to the map (0.5p)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal objective function value by GRG nonlinear is 705472.5677 euros</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal solution by GRG nonlinear is drawn on the map</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (d) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2921,19 +6829,52 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal objective function value by GRG nonlinear is 705472.5665 euros</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal solution by Evolutionary is drawn on the map</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
@@ -3203,12 +7144,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>531812</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>84139</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3730624" cy="4867615"/>
+    <xdr:ext cx="3730624" cy="4742204"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5">
@@ -3222,8 +7163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10493375" y="1116014"/>
-          <a:ext cx="3730624" cy="4867615"/>
+          <a:off x="12420600" y="328613"/>
+          <a:ext cx="3730624" cy="4742204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3253,7 +7194,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -3419,281 +7360,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" b="0"/>
@@ -4915,13 +8582,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>539751</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>211525</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
@@ -4939,8 +8606,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5994401" y="1085850"/>
-          <a:ext cx="4548574" cy="3756024"/>
+          <a:off x="6669089" y="1087438"/>
+          <a:ext cx="5482024" cy="3702049"/>
           <a:chOff x="7691438" y="4667250"/>
           <a:chExt cx="4370774" cy="4841875"/>
         </a:xfrm>
@@ -4999,36 +8666,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Problem 1"/>
-      <sheetName val="Problem 2"/>
-      <sheetName val="Problem 3"/>
-      <sheetName val="Problem 4"/>
-      <sheetName val="Problem 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5294,221 +8931,752 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="10" max="12" width="9.88671875" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.5546875" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="str">
-        <f>'[1]Problem 2'!$A$1</f>
-        <v>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</v>
+      <c r="A1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="19" t="s">
+    <row r="23" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+    </row>
+    <row r="24" spans="13:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="20" t="s">
+    <row r="25" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18"/>
-      <c r="C29" s="12" t="s">
+    <row r="26" spans="13:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="10"/>
+      <c r="N26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="O26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="P26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="Q26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="R26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="S26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="T26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="U26" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="V26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X26" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+    <row r="27" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="9">
+      <c r="N27" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="9">
+      <c r="O27" s="11">
         <v>2</v>
       </c>
-      <c r="E30" s="8">
+      <c r="P27" s="14">
         <v>3</v>
       </c>
-      <c r="F30" s="9">
+      <c r="Q27" s="11">
         <v>4</v>
       </c>
-      <c r="G30" s="9">
+      <c r="R27" s="11">
         <v>5</v>
       </c>
-      <c r="H30" s="9">
+      <c r="S27" s="11">
         <v>6</v>
       </c>
-      <c r="I30" s="9">
+      <c r="T27" s="11">
         <v>7</v>
       </c>
-      <c r="J30" s="10">
+      <c r="U27" s="11">
         <v>8</v>
       </c>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+    <row r="28" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="3">
+      <c r="N28" s="12">
         <v>204</v>
       </c>
-      <c r="D31" s="3">
+      <c r="O28" s="12">
         <v>281</v>
       </c>
-      <c r="E31" s="13">
+      <c r="P28" s="15">
         <v>234</v>
       </c>
-      <c r="F31" s="3">
+      <c r="Q28" s="12">
         <v>224</v>
       </c>
-      <c r="G31" s="3">
+      <c r="R28" s="12">
         <v>243</v>
       </c>
-      <c r="H31" s="3">
+      <c r="S28" s="12">
         <v>189</v>
       </c>
-      <c r="I31" s="3">
+      <c r="T28" s="12">
         <v>220</v>
       </c>
-      <c r="J31" s="4">
+      <c r="U28" s="12">
         <v>128</v>
       </c>
+      <c r="V28" s="40">
+        <v>159.68826998555571</v>
+      </c>
+      <c r="W28" s="40">
+        <v>159.69200461269176</v>
+      </c>
+      <c r="X28" s="20"/>
     </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
+    <row r="29" spans="13:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="12">
+      <c r="N29" s="13">
         <v>25</v>
       </c>
-      <c r="D32" s="12">
+      <c r="O29" s="13">
         <v>69</v>
       </c>
-      <c r="E32" s="14">
+      <c r="P29" s="16">
         <v>322</v>
       </c>
-      <c r="F32" s="12">
+      <c r="Q29" s="13">
         <v>220</v>
       </c>
-      <c r="G32" s="12">
+      <c r="R29" s="13">
         <v>186</v>
       </c>
-      <c r="H32" s="12">
+      <c r="S29" s="13">
         <v>185</v>
       </c>
-      <c r="I32" s="12">
+      <c r="T29" s="13">
         <v>123</v>
       </c>
-      <c r="J32" s="5">
+      <c r="U29" s="13">
         <v>72</v>
       </c>
+      <c r="V29" s="40">
+        <v>91.606835793346065</v>
+      </c>
+      <c r="W29" s="40">
+        <v>91.609321340075923</v>
+      </c>
+      <c r="X29" s="20"/>
     </row>
-    <row r="34" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+    <row r="30" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
     </row>
-    <row r="35" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+    <row r="31" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
     </row>
-    <row r="36" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+    <row r="32" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
     </row>
-    <row r="37" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F37" s="7"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+    <row r="33" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
     </row>
-    <row r="38" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F38" s="7"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+    <row r="34" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="L34" s="24"/>
+      <c r="M34" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="45"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T34" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
     </row>
-    <row r="39" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+    <row r="35" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="L35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="30">
+        <v>159.68826998555571</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="27">
+        <f t="shared" ref="P35:U35" si="0">ABS($N$35-P28)</f>
+        <v>74.311730014444294</v>
+      </c>
+      <c r="Q35" s="27">
+        <f t="shared" si="0"/>
+        <v>64.311730014444294</v>
+      </c>
+      <c r="R35" s="27">
+        <f t="shared" si="0"/>
+        <v>83.311730014444294</v>
+      </c>
+      <c r="S35" s="27">
+        <f t="shared" si="0"/>
+        <v>29.311730014444294</v>
+      </c>
+      <c r="T35" s="27">
+        <f t="shared" si="0"/>
+        <v>60.311730014444294</v>
+      </c>
+      <c r="U35" s="27">
+        <f t="shared" si="0"/>
+        <v>31.688269985555706</v>
+      </c>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
     </row>
-    <row r="40" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F40" s="7"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+    <row r="36" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="30">
+        <v>91.606835793346065</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" ref="P36:U36" si="1">ABS($N$36-P29)</f>
+        <v>230.39316420665392</v>
+      </c>
+      <c r="Q36" s="27">
+        <f t="shared" si="1"/>
+        <v>128.39316420665392</v>
+      </c>
+      <c r="R36" s="27">
+        <f t="shared" si="1"/>
+        <v>94.393164206653935</v>
+      </c>
+      <c r="S36" s="27">
+        <f t="shared" si="1"/>
+        <v>93.393164206653935</v>
+      </c>
+      <c r="T36" s="27">
+        <f t="shared" si="1"/>
+        <v>31.393164206653935</v>
+      </c>
+      <c r="U36" s="27">
+        <f t="shared" si="1"/>
+        <v>19.606835793346065</v>
+      </c>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
     </row>
-    <row r="41" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F41" s="7"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+    <row r="37" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="27">
+        <f>SQRT(P35^2+P36^2)</f>
+        <v>242.08106768372832</v>
+      </c>
+      <c r="Q37" s="27">
+        <f t="shared" ref="Q37:U37" si="2">SQRT(Q35^2+Q36^2)</f>
+        <v>143.59945415093878</v>
+      </c>
+      <c r="R37" s="27">
+        <f t="shared" si="2"/>
+        <v>125.90041225883255</v>
+      </c>
+      <c r="S37" s="27">
+        <f t="shared" si="2"/>
+        <v>97.884935699885403</v>
+      </c>
+      <c r="T37" s="27">
+        <f t="shared" si="2"/>
+        <v>67.992907984885875</v>
+      </c>
+      <c r="U37" s="27">
+        <f t="shared" si="2"/>
+        <v>37.26358094043978</v>
+      </c>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
     </row>
-    <row r="42" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F42" s="7"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+    <row r="38" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="19">
+        <v>159.69200461269176</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+    </row>
+    <row r="39" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="19">
+        <v>91.609321340075923</v>
+      </c>
+      <c r="O39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" s="31">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="31">
+        <v>200</v>
+      </c>
+      <c r="R39" s="31">
+        <v>200</v>
+      </c>
+      <c r="S39" s="31">
+        <v>200</v>
+      </c>
+      <c r="T39" s="31">
+        <v>200</v>
+      </c>
+      <c r="U39" s="31">
+        <v>800</v>
+      </c>
+      <c r="V39" s="20"/>
+      <c r="W39" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+    </row>
+    <row r="40" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40" s="27">
+        <f t="shared" ref="P40:U40" si="3">$P$38 * P39 * P37</f>
+        <v>121040.53384186416</v>
+      </c>
+      <c r="Q40" s="27">
+        <f t="shared" si="3"/>
+        <v>143599.45415093878</v>
+      </c>
+      <c r="R40" s="27">
+        <f t="shared" si="3"/>
+        <v>125900.41225883254</v>
+      </c>
+      <c r="S40" s="27">
+        <f t="shared" si="3"/>
+        <v>97884.935699885405</v>
+      </c>
+      <c r="T40" s="27">
+        <f t="shared" si="3"/>
+        <v>67992.907984885882</v>
+      </c>
+      <c r="U40" s="27">
+        <f t="shared" si="3"/>
+        <v>149054.32376175912</v>
+      </c>
+      <c r="V40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="29">
+        <f>SUM(P40:U40)</f>
+        <v>705472.56769816589</v>
+      </c>
+      <c r="X40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y40" s="20"/>
+    </row>
+    <row r="41" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="40">
+        <v>0</v>
+      </c>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="29">
+        <v>705472.56656544202</v>
+      </c>
+      <c r="X41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y41" s="20"/>
+    </row>
+    <row r="42" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="40">
+        <v>0</v>
+      </c>
+      <c r="O42" s="39"/>
+      <c r="P42" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+    </row>
+    <row r="43" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="34">
+        <f>ABS($N$35-N28)</f>
+        <v>44.311730014444294</v>
+      </c>
+      <c r="Q43" s="34">
+        <f>ABS($N$35-O28)</f>
+        <v>121.31173001444429</v>
+      </c>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+    </row>
+    <row r="44" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="L44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="40">
+        <v>350</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="35">
+        <f>ABS($N$36-N29)</f>
+        <v>66.606835793346065</v>
+      </c>
+      <c r="Q44" s="35">
+        <f>ABS($N$36-O29)</f>
+        <v>22.606835793346065</v>
+      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+    </row>
+    <row r="45" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="L45" s="4"/>
+      <c r="M45" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="40">
+        <v>350</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="37">
+        <f>SQRT(P43^2+P44^2)</f>
+        <v>79.999999945467309</v>
+      </c>
+      <c r="Q45" s="37">
+        <f>SQRT(Q43^2+Q44^2)</f>
+        <v>123.4001817814088</v>
+      </c>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+    </row>
+    <row r="46" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="46">
+        <f xml:space="preserve"> MIN(P45:Q45)</f>
+        <v>79.999999945467309</v>
+      </c>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="31">
+        <v>80</v>
+      </c>
+      <c r="T46" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+    </row>
+    <row r="47" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+    </row>
+    <row r="48" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+    </row>
+    <row r="49" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E28:J28"/>
+  <mergeCells count="4">
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:V46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
